--- a/Opencv/Face_recognition Using Opencv & Python/Graphs/roi_data.xlsx
+++ b/Opencv/Face_recognition Using Opencv & Python/Graphs/roi_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,426 +447,666 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01472568698227406</v>
+        <v>-0.01376703754067421</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4322163164615631</v>
+        <v>-0.2712926268577576</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.03179656341671944</v>
+        <v>-0.007479685824364424</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4262943863868713</v>
+        <v>-0.2587054073810577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.03519591689109802</v>
+        <v>-0.0232145506888628</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4261305332183838</v>
+        <v>-0.2570185661315918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.01614429987967014</v>
+        <v>-0.008683285675942898</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4081884622573853</v>
+        <v>-0.2476549744606018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02225491032004356</v>
+        <v>0.004566296935081482</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3815371990203857</v>
+        <v>-0.2462475448846817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.002854190533980727</v>
+        <v>-0.05847179889678955</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3813762664794922</v>
+        <v>-0.2518524825572968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.03613860160112381</v>
+        <v>-0.01311033871024847</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3680855929851532</v>
+        <v>-0.2551321983337402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.03293465822935104</v>
+        <v>-0.02678895182907581</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3607823848724365</v>
+        <v>-0.2579028010368347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.02215870283544064</v>
+        <v>-0.08718054741621017</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3572910726070404</v>
+        <v>-0.2506866753101349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03121156245470047</v>
+        <v>-0.1203717961907387</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3631234467029572</v>
+        <v>-0.2562719285488129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.040951918810606</v>
+        <v>-0.1088492125272751</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3549438118934631</v>
+        <v>-0.2566943764686584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01235996466130018</v>
+        <v>-0.09859403967857361</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3368442952632904</v>
+        <v>-0.2596521377563477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.04898557439446449</v>
+        <v>-0.124880775809288</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3359322547912598</v>
+        <v>-0.2573979496955872</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1404169201850891</v>
+        <v>-0.2173636853694916</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3086066246032715</v>
+        <v>-0.2454803586006165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.06065486744046211</v>
+        <v>-0.1971516758203506</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2897720634937286</v>
+        <v>-0.2488977015018463</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.05911444127559662</v>
+        <v>-0.1619172543287277</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2634784579277039</v>
+        <v>-0.2572817802429199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.06881038099527359</v>
+        <v>-0.1686314344406128</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2481319755315781</v>
+        <v>-0.2630194425582886</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.154266431927681</v>
+        <v>-0.1861473917961121</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2454225718975067</v>
+        <v>-0.2638517916202545</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1911010295152664</v>
+        <v>-0.2099443525075912</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.2440249770879745</v>
+        <v>-0.2544990181922913</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1573604345321655</v>
+        <v>-0.2059897929430008</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2492639571428299</v>
+        <v>-0.2620643079280853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.2097380757331848</v>
+        <v>-0.2145322859287262</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.24081090092659</v>
+        <v>-0.2561702132225037</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1452066898345947</v>
+        <v>-0.2057560682296753</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.2401405870914459</v>
+        <v>-0.2516132593154907</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.286545068025589</v>
+        <v>-0.2198179066181183</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.2476586550474167</v>
+        <v>-0.255491703748703</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.1455168724060059</v>
+        <v>-0.1844241172075272</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.2494499832391739</v>
+        <v>-0.2747831642627716</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.1882413029670715</v>
+        <v>-0.2078032642602921</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2535906136035919</v>
+        <v>-0.2734654545783997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.1599615961313248</v>
+        <v>-0.2014027386903763</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.2578162848949432</v>
+        <v>-0.2792215049266815</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.1559168249368668</v>
+        <v>-0.1929815858602524</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.3001923859119415</v>
+        <v>-0.2837593555450439</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.0284913182258606</v>
+        <v>-0.1876092404127121</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.2813934683799744</v>
+        <v>-0.2872683107852936</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.01809425093233585</v>
+        <v>-0.1890546381473541</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2801046967506409</v>
+        <v>-0.2843153774738312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.0848640576004982</v>
+        <v>-0.2110497653484344</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2710776031017303</v>
+        <v>-0.2856114208698273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.08479368686676025</v>
+        <v>-0.2016543298959732</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.279684841632843</v>
+        <v>-0.3153586685657501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.1575373113155365</v>
+        <v>-0.1871408671140671</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.2946485280990601</v>
+        <v>-0.3204529285430908</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.1065078154206276</v>
+        <v>-0.1767526119947433</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2908175587654114</v>
+        <v>-0.3226352334022522</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.09201186895370483</v>
+        <v>-0.1848687380552292</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3004511296749115</v>
+        <v>-0.3527676165103912</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.06560602784156799</v>
+        <v>-0.1707910299301147</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3076884746551514</v>
+        <v>-0.3638253808021545</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.05353135988116264</v>
+        <v>-0.1113340780138969</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3171237707138062</v>
+        <v>-0.3710431158542633</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.1151601895689964</v>
+        <v>-0.1214701235294342</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.3048880398273468</v>
+        <v>-0.3778640627861023</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.01440976746380329</v>
+        <v>-0.1282351166009903</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.2987881004810333</v>
+        <v>-0.3772145807743073</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.09290377795696259</v>
+        <v>-0.1584790796041489</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.2689107060432434</v>
+        <v>-0.3634669184684753</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.007635016459971666</v>
+        <v>-0.1512991040945053</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.303366631269455</v>
+        <v>-0.3127726912498474</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.01382051780819893</v>
+        <v>-0.1632601320743561</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.303198367357254</v>
+        <v>-0.3027653396129608</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1020950525999069</v>
+        <v>-0.2036023736000061</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2702772319316864</v>
+        <v>-0.2596531212329865</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1264241188764572</v>
+        <v>-0.2030860483646393</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2487754374742508</v>
+        <v>-0.2637529373168945</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1303690820932388</v>
+        <v>-0.1852505207061768</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.2387160658836365</v>
+        <v>-0.2554917931556702</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.09578032046556473</v>
+        <v>-0.1866596788167953</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.2383678257465363</v>
+        <v>-0.259334534406662</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1053538471460342</v>
+        <v>-0.1884052902460098</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.2283911108970642</v>
+        <v>-0.260886013507843</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.05495122075080872</v>
+        <v>-0.1880117058753967</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2521554827690125</v>
+        <v>-0.2539723217487335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.02836441434919834</v>
+        <v>-0.1941025257110596</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2606217265129089</v>
+        <v>-0.2480101138353348</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.05927293747663498</v>
+        <v>-0.1831977218389511</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2629760205745697</v>
+        <v>-0.2492621541023254</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.05544763058423996</v>
+        <v>-0.1879858672618866</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2588704228401184</v>
+        <v>-0.2419283986091614</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.03346240147948265</v>
+        <v>-0.1891354024410248</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2620390951633453</v>
+        <v>-0.2417996674776077</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.08013349026441574</v>
+        <v>-0.1777106821537018</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.2450644671916962</v>
+        <v>-0.2538638710975647</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.08455341309309006</v>
+        <v>-0.18467777967453</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2350830286741257</v>
+        <v>-0.2475745230913162</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-0.173709511756897</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.2535420060157776</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-0.165525421500206</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.2537588775157928</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-0.1879128664731979</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.2414541691541672</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-0.139416828751564</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.2633082568645477</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-0.1620066910982132</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.2493086457252502</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-0.1749555915594101</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.2424976974725723</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-0.1880425363779068</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.2383181750774384</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-0.1596776843070984</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.2592492699623108</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-0.1654129326343536</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.2530428767204285</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-0.1424630284309387</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.2697429358959198</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-0.1536136567592621</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.2608451843261719</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-0.147003710269928</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.2647672891616821</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-0.149696096777916</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.2661747634410858</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-0.167501375079155</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.2509248554706573</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-0.1838865876197815</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.2628521621227264</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-0.1355575621128082</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.3119499385356903</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-0.130646601319313</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.3136996328830719</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-0.14484503865242</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.3060333430767059</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-0.1100318059325218</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.3021055459976196</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-0.1319152861833572</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.2909335494041443</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-0.09586439281702042</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.2951275408267975</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-0.09091474115848541</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.2951401770114899</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-0.1283072531223297</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.2873247265815735</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-0.1482640206813812</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.2867507040500641</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-0.1518228203058243</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.2805539965629578</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-0.1648978888988495</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.2704824507236481</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-0.1564812660217285</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.2809637784957886</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-0.1581248044967651</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.286962479352951</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-0.1611825078725815</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.2843118906021118</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-0.1530824452638626</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.3098630905151367</v>
       </c>
     </row>
   </sheetData>
